--- a/results/mp/logistic/corona/confidence/210/masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="135">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,406 +43,382 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lowest</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>beginning</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>pressure</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>oil</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
 </sst>
 </file>
@@ -800,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,10 +784,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -890,16 +866,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -911,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -919,13 +895,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -937,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -961,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -969,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -987,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1011,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1019,13 +995,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1037,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -1069,13 +1045,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8157894736842105</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1087,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1119,13 +1095,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8055555555555556</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1137,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1161,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1169,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8013698630136986</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1187,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1211,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1219,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.76</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1237,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1261,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1269,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1287,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.8511749347258486</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L11">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M11">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1311,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1319,13 +1295,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1337,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.85</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1361,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1369,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1387,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.8203125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1411,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1419,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7241379310344828</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1437,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.8181818181818182</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1461,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1469,13 +1445,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1487,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.8125</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1511,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1540,16 +1516,16 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.8113207547169812</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1561,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1569,13 +1545,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6101694915254238</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1587,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.8103448275862069</v>
+        <v>0.76875</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1611,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1619,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6086956521739131</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1637,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.78125</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1661,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1669,13 +1645,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1687,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.7804878048780488</v>
+        <v>0.7578125</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1711,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1719,13 +1695,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5769230769230769</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1737,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.7746478873239436</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L20">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1761,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1769,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C21">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1787,19 +1763,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1819,13 +1795,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5652173913043478</v>
+        <v>0.55</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1837,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1861,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1869,13 +1845,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5329457364341085</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C23">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1887,19 +1863,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K23">
-        <v>0.746031746031746</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1911,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1919,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5185185185185185</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1937,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1961,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1969,13 +1945,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5161290322580645</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1987,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K25">
-        <v>0.7291666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2011,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2019,13 +1995,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5098039215686274</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2037,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K26">
         <v>0.7083333333333334</v>
@@ -2069,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4765100671140939</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C27">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2087,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.6976744186046512</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2111,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2119,13 +2095,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.475</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2137,19 +2113,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>0.6852941176470588</v>
+        <v>0.7</v>
       </c>
       <c r="L28">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2161,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2169,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4594594594594595</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C29">
         <v>17</v>
@@ -2187,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>0.6842105263157895</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2211,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2219,13 +2195,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4444444444444444</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C30">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2237,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2261,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2269,13 +2245,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.44</v>
+        <v>0.425</v>
       </c>
       <c r="C31">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2287,19 +2263,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2311,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2319,13 +2295,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4358974358974359</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2337,19 +2313,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2361,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2369,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4193548387096774</v>
+        <v>0.40625</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -2387,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K33">
-        <v>0.6571428571428571</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2411,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2419,13 +2395,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4166666666666667</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2437,19 +2413,19 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L34">
         <v>21</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L34">
-        <v>18</v>
-      </c>
       <c r="M34">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2461,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2469,13 +2445,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4102564102564102</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2490,16 +2466,16 @@
         <v>23</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K35">
         <v>0.625</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2511,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2519,13 +2495,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.375</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2537,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K36">
-        <v>0.6170212765957447</v>
+        <v>0.62</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2561,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2569,13 +2545,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3636363636363636</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2587,31 +2563,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2619,13 +2595,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3454545454545455</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2637,10 +2613,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K38">
         <v>0.6086956521739131</v>
@@ -2669,13 +2645,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2687,19 +2663,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>0.606694560669456</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L39">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2711,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2719,13 +2695,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2857142857142857</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2737,31 +2713,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K40">
-        <v>0.5958904109589042</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L40">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2769,13 +2745,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2738095238095238</v>
+        <v>0.1875</v>
       </c>
       <c r="C41">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2787,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K41">
-        <v>0.5925925925925926</v>
+        <v>0.6</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2811,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2819,13 +2795,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1903485254691689</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C42">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D42">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2837,19 +2813,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K42">
-        <v>0.5833333333333334</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2861,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2869,13 +2845,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1875</v>
+        <v>0.09</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2887,19 +2863,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K43">
-        <v>0.5617977528089888</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2911,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2919,37 +2895,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.07333333333333333</v>
+        <v>0.01982758620689655</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>278</v>
+        <v>1137</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K44">
-        <v>0.5454545454545454</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2961,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2969,37 +2945,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.02127659574468085</v>
+        <v>0.01712328767123288</v>
       </c>
       <c r="C45">
         <v>15</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E45">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="F45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>690</v>
+        <v>861</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K45">
-        <v>0.5428571428571428</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3011,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3019,37 +2995,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02093397745571659</v>
+        <v>0.01689902830587241</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E46">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="F46">
-        <v>0.6799999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>608</v>
+        <v>2327</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K46">
-        <v>0.54</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3061,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3069,37 +3045,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02068965517241379</v>
+        <v>0.01517597675169519</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1136</v>
+        <v>3050</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K47">
-        <v>0.5384615384615384</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3111,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3119,37 +3095,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01901140684410646</v>
+        <v>0.01407211961301671</v>
       </c>
       <c r="C48">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E48">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="F48">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2322</v>
+        <v>1121</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K48">
-        <v>0.5357142857142857</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3161,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3169,28 +3145,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01591760299625468</v>
+        <v>0.01217798594847775</v>
       </c>
       <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49">
         <v>34</v>
       </c>
-      <c r="D49">
-        <v>41</v>
-      </c>
       <c r="E49">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="F49">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>2102</v>
+        <v>2109</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K49">
         <v>0.5</v>
@@ -3219,31 +3195,31 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01490825688073395</v>
+        <v>0.0110062893081761</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E50">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="F50">
-        <v>0.5700000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>859</v>
+        <v>1258</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K50">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L50">
         <v>13</v>
@@ -3261,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3269,37 +3245,37 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0148530836293187</v>
+        <v>0.009570312500000001</v>
       </c>
       <c r="C51">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="E51">
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="F51">
-        <v>0.8200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>3051</v>
+        <v>5071</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K51">
-        <v>0.5</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3311,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3319,37 +3295,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.01409691629955947</v>
+        <v>0.008726003490401396</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="F52">
-        <v>0.76</v>
+        <v>0.54</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1119</v>
+        <v>2272</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K52">
-        <v>0.4666666666666667</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3361,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3369,37 +3345,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.01107594936708861</v>
+        <v>0.007679870654810024</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D53">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E53">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F53">
-        <v>0.36</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1250</v>
+        <v>4910</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K53">
-        <v>0.4509803921568628</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3411,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3419,37 +3395,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01046663759267335</v>
+        <v>0.007465781833264205</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E54">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="F54">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>2269</v>
+        <v>2393</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K54">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3461,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3469,37 +3445,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.009096422073984234</v>
+        <v>0.006308411214953271</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D55">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E55">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="F55">
-        <v>0.48</v>
+        <v>0.36</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>4902</v>
+        <v>4253</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K55">
-        <v>0.3835616438356164</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3511,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3519,37 +3495,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.008383791336748951</v>
+        <v>0.006090597639893415</v>
       </c>
       <c r="C56">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E56">
-        <v>0.49</v>
+        <v>0.74</v>
       </c>
       <c r="F56">
-        <v>0.51</v>
+        <v>0.26</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>4258</v>
+        <v>2611</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K56">
-        <v>0.359375</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3561,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3569,237 +3545,141 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.007936507936507936</v>
+        <v>0.006005056890012643</v>
       </c>
       <c r="C57">
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>0.66</v>
+      </c>
+      <c r="F57">
+        <v>0.34</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3145</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K57">
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K58">
+        <v>0.25</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K59">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K60">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="L60">
+        <v>16</v>
+      </c>
+      <c r="M60">
         <v>17</v>
       </c>
-      <c r="D57">
-        <v>33</v>
-      </c>
-      <c r="E57">
-        <v>0.48</v>
-      </c>
-      <c r="F57">
-        <v>0.52</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>2125</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="N60">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O60">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K57">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L57">
-        <v>27</v>
-      </c>
-      <c r="M57">
-        <v>27</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.007870753935376968</v>
-      </c>
-      <c r="C58">
-        <v>19</v>
-      </c>
-      <c r="D58">
-        <v>50</v>
-      </c>
-      <c r="E58">
-        <v>0.62</v>
-      </c>
-      <c r="F58">
-        <v>0.38</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>2395</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K58">
-        <v>0.3050847457627119</v>
-      </c>
-      <c r="L58">
-        <v>18</v>
-      </c>
-      <c r="M58">
-        <v>18</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.007606787595084845</v>
-      </c>
-      <c r="C59">
-        <v>39</v>
-      </c>
-      <c r="D59">
-        <v>77</v>
-      </c>
-      <c r="E59">
-        <v>0.49</v>
-      </c>
-      <c r="F59">
-        <v>0.51</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>5088</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K59">
-        <v>0.2982456140350877</v>
-      </c>
-      <c r="L59">
-        <v>17</v>
-      </c>
-      <c r="M59">
-        <v>17</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.006486074017550554</v>
-      </c>
-      <c r="C60">
-        <v>17</v>
-      </c>
-      <c r="D60">
-        <v>69</v>
-      </c>
-      <c r="E60">
-        <v>0.75</v>
-      </c>
-      <c r="F60">
-        <v>0.25</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>2604</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K60">
-        <v>0.2131147540983606</v>
-      </c>
-      <c r="L60">
-        <v>13</v>
-      </c>
-      <c r="M60">
-        <v>13</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.006321112515802781</v>
-      </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
-      <c r="D61">
-        <v>57</v>
-      </c>
-      <c r="E61">
-        <v>0.65</v>
-      </c>
-      <c r="F61">
-        <v>0.35</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>3144</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="K61">
-        <v>0.1805555555555556</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3811,15 +3691,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K62">
-        <v>0.1467889908256881</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L62">
         <v>16</v>
@@ -3837,631 +3717,501 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>93</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K63">
-        <v>0.1451612903225807</v>
+        <v>0.08024691358024691</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K64">
-        <v>0.08024691358024691</v>
+        <v>0.04844290657439446</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M64">
         <v>14</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>149</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K65">
-        <v>0.07027027027027027</v>
+        <v>0.03663003663003663</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>172</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K66">
-        <v>0.05844155844155844</v>
+        <v>0.03430962343096234</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>290</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K67">
-        <v>0.04857621440536013</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L67">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="N67">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1136</v>
+        <v>881</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K68">
-        <v>0.04584527220630372</v>
+        <v>0.0195822454308094</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>333</v>
+        <v>751</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K69">
-        <v>0.04556354916067146</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>398</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="K70">
-        <v>0.04498269896193772</v>
+        <v>0.01731275875047045</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>276</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K71">
-        <v>0.04086538461538462</v>
+        <v>0.01624365482233503</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>399</v>
+        <v>969</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K72">
-        <v>0.03663003663003663</v>
+        <v>0.01445086705202312</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M72">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>526</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="K73">
-        <v>0.02159468438538206</v>
+        <v>0.01400906468891636</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="N73">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="O73">
-        <v>0.1899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>589</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="K74">
-        <v>0.02030456852791878</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="L74">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N74">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="O74">
-        <v>0.17</v>
+        <v>0.45</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>965</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="K75">
-        <v>0.0196078431372549</v>
+        <v>0.01257334450963956</v>
       </c>
       <c r="L75">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N75">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="O75">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1250</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K76">
-        <v>0.01957831325301205</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L76">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M76">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N76">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
       <c r="O76">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>2604</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K77">
-        <v>0.01545893719806763</v>
+        <v>0.01116019530341781</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M77">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N77">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
       <c r="O77">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>1019</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="K78">
-        <v>0.01341719077568134</v>
+        <v>0.009681323114158934</v>
       </c>
       <c r="L78">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M78">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="N78">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O78">
-        <v>0.22</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>2353</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K79">
-        <v>0.01277823577906018</v>
+        <v>0.008795934323690384</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M79">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="N79">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="O79">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>2395</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="K80">
-        <v>0.01261034047919294</v>
+        <v>0.007426823940585408</v>
       </c>
       <c r="L80">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N80">
-        <v>0.71</v>
+        <v>0.46</v>
       </c>
       <c r="O80">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>1566</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="K81">
-        <v>0.01163156240176045</v>
+        <v>0.006986492780624127</v>
       </c>
       <c r="L81">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N81">
-        <v>0.65</v>
+        <v>0.58</v>
       </c>
       <c r="O81">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K82">
-        <v>0.00989699050696829</v>
-      </c>
-      <c r="L82">
-        <v>49</v>
-      </c>
-      <c r="M82">
-        <v>94</v>
-      </c>
-      <c r="N82">
-        <v>0.52</v>
-      </c>
-      <c r="O82">
-        <v>0.48</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>4902</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K83">
-        <v>0.007921714818266543</v>
-      </c>
-      <c r="L83">
-        <v>34</v>
-      </c>
-      <c r="M83">
-        <v>70</v>
-      </c>
-      <c r="N83">
-        <v>0.49</v>
-      </c>
-      <c r="O83">
-        <v>0.51</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K84">
-        <v>0.007473143390938813</v>
-      </c>
-      <c r="L84">
-        <v>16</v>
-      </c>
-      <c r="M84">
-        <v>33</v>
-      </c>
-      <c r="N84">
-        <v>0.48</v>
-      </c>
-      <c r="O84">
-        <v>0.52</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K85">
-        <v>0.0074131876706984</v>
-      </c>
-      <c r="L85">
-        <v>38</v>
-      </c>
-      <c r="M85">
-        <v>77</v>
-      </c>
-      <c r="N85">
-        <v>0.49</v>
-      </c>
-      <c r="O85">
-        <v>0.51</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>5088</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K86">
-        <v>0.00700218818380744</v>
-      </c>
-      <c r="L86">
-        <v>16</v>
-      </c>
-      <c r="M86">
-        <v>40</v>
-      </c>
-      <c r="N86">
-        <v>0.4</v>
-      </c>
-      <c r="O86">
-        <v>0.6</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>2269</v>
+        <v>2132</v>
       </c>
     </row>
   </sheetData>
